--- a/outputs-HGR-r202/f__UBA660.xlsx
+++ b/outputs-HGR-r202/f__UBA660.xlsx
@@ -3250,7 +3250,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>g__CAG-988(reject)</t>
+          <t>g__CAG-988</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__UBA660.xlsx
+++ b/outputs-HGR-r202/f__UBA660.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP24"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -777,6 +782,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -909,6 +919,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1041,6 +1056,11 @@
           <t>g__UBA7057</t>
         </is>
       </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>g__UBA7057</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1173,6 +1193,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1305,6 +1330,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1437,6 +1467,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1569,6 +1604,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1701,6 +1741,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1833,6 +1878,11 @@
           <t>g__CAG-605</t>
         </is>
       </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>g__CAG-605</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1965,6 +2015,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2097,6 +2152,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2229,6 +2289,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2361,6 +2426,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>g__CAG-302(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2493,6 +2563,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2625,6 +2700,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2757,6 +2837,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2889,6 +2974,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>g__CAG-988(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3021,6 +3111,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>g__CAG-988(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3153,6 +3248,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3285,6 +3385,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3417,6 +3522,11 @@
           <t>g__CAG-988</t>
         </is>
       </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3549,6 +3659,11 @@
           <t>g__CAG-302</t>
         </is>
       </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>g__CAG-302</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3677,6 +3792,11 @@
         <v>0.9014384628552625</v>
       </c>
       <c r="AP24" t="inlineStr">
+        <is>
+          <t>g__CAG-988</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>g__CAG-988</t>
         </is>

--- a/outputs-HGR-r202/f__UBA660.xlsx
+++ b/outputs-HGR-r202/f__UBA660.xlsx
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>g__CAG-302</t>
+          <t>g__CAG-302(reject)</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>g__CAG-988</t>
+          <t>g__CAG-988(reject)</t>
         </is>
       </c>
     </row>
